--- a/oumtt_apply.xlsx
+++ b/oumtt_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>최지석</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-02 17:15:01.291733</t>
+          <t>2022-06-04 21:15:53.435346</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,15 +494,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>010-4321-4321</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>01064653571</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -518,7 +522,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-02 20:45:17.940964</t>
+          <t>2022-06-04 21:16:12.075914</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -528,7 +532,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -536,7 +540,11 @@
           <t>01025566858</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -547,12 +555,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>장진우</t>
+          <t>장진웅</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-02 20:49:53.429104</t>
+          <t>2022-06-04 21:25:50.350193</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -562,15 +570,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>010-2345-1234</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>010-2556-6858</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,12 +593,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>박성진</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-03 06:12:15.172307</t>
+          <t>2022-06-04 21:49:58.852478</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,10 +613,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>010-25566858</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>01053369198</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -615,12 +631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>조형진</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-03 06:25:12.347471</t>
+          <t>2022-06-04 21:51:18.075735</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -635,10 +651,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>010-2556-6858</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>01031809725</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -649,12 +669,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>김용진</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-03 06:28:14.008511</t>
+          <t>2022-06-04 21:52:41.322206</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -664,15 +684,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01025566858</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>01083990941</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -683,12 +707,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>자잊ㄴ웅</t>
+          <t>이준석</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-03 16:38:56.540359</t>
+          <t>2022-06-04 21:53:06.449827</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,10 +727,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0101234-1234</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>01035996345</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,12 +745,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>정병운</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-03 17:03:31.992182</t>
+          <t>2022-06-04 22:01:05.074357</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -732,17 +760,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01025629036</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>푸릇푸릇한 자연을 좋아해서.</t>
+          <t>생각(고민)의 정리가 필요할 때.</t>
         </is>
       </c>
     </row>
@@ -755,12 +783,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>변경호</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-03 17:04:44.052706</t>
+          <t>2022-06-04 22:25:39.866352</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -775,7 +803,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01012344321</t>
+          <t>01048798150</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -793,12 +821,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>장진우</t>
+          <t>진유키</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-03 17:05:05.014226</t>
+          <t>2022-06-04 22:26:00.871852</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -813,12 +841,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01092030511</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>생각(고민)의 정리가 필요할 때.</t>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
         </is>
       </c>
     </row>
@@ -831,12 +859,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>자인웅</t>
+          <t>김민식</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-03 17:05:24.866029</t>
+          <t>2022-06-04 22:26:44.972157</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,12 +879,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01028554602</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>스트레스를 해소하기 위해서.</t>
+          <t>생각(고민)의 정리가 필요할 때.</t>
         </is>
       </c>
     </row>
@@ -869,12 +897,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>장진ㅇ우</t>
+          <t>강효경</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-03 17:11:26.317505</t>
+          <t>2022-06-04 22:35:48.532178</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -884,15 +912,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>010-1234-1234</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>010-5161-8176</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -903,12 +935,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>장유아</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-03 17:36:14.933290</t>
+          <t>2022-06-04 22:38:44.995166</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -918,15 +950,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01012341234</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>010-8014-5442</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,12 +973,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>김승환</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-03 20:37:47.885033</t>
+          <t>2022-06-04 22:56:13.459250</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -957,12 +993,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01034807001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+          <t>생각(고민)의 정리가 필요할 때.</t>
         </is>
       </c>
     </row>
@@ -975,12 +1011,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>양용준</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-04 02:54:19.320481</t>
+          <t>2022-06-04 23:08:29.612534</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -995,10 +1031,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>01012341234</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>010-6358-2576</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,12 +1049,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>w123</t>
+          <t>김경민</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-04 03:03:25.443639</t>
+          <t>2022-06-04 23:57:40.726674</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1024,15 +1064,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01012341234</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>01042711820</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1043,12 +1087,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>이은호</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-04 03:14:10.186144</t>
+          <t>2022-06-05 00:10:39.903707</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1063,10 +1107,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01012341234</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>01056223555</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1077,12 +1125,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>김성윤</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-04 03:43:55.471650</t>
+          <t>2022-06-05 01:29:52.407554</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1097,12 +1145,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01098693394</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>푸릇푸릇한 자연을 좋아해서.</t>
+          <t>생각(고민)의 정리가 필요할 때.</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1163,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>장진우</t>
+          <t>이다감</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-04 03:54:45.352372</t>
+          <t>2022-06-05 07:30:50.314396</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1135,12 +1183,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01012341234</t>
+          <t>01065403328</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>푸릇푸릇한 자연을 좋아해서.</t>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1201,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>장진웅</t>
+          <t>김루이</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-04 04:23:48.466146</t>
+          <t>2022-06-05 07:31:17.339129</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1173,12 +1221,126 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>010-12341234</t>
+          <t>01065403328</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>이진표</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-06-05 07:47:32.860479</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01026504183</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>나영</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-06-05 08:47:07.807624</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01064892346</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>최용수</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2022-06-05 11:12:06.668626</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01085790212</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
         </is>
       </c>
     </row>

--- a/oumtt_apply.xlsx
+++ b/oumtt_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,6 +1344,956 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>김비안</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:50:21.043670</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01071626469</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>김진호</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:51:50.622453</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01041606469</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>김민희</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:52:15.934175</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01066831613</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>노유빈</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:52:38.361084</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01073442155</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>이원석</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:53:02.132004</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01033188136</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>안중석</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:53:49.342801</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01099457238</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>하민아</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:54:29.496269</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01022927451</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>송수환</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:55:00.268602</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>01090745474</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>지승민</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2022-06-05 19:55:32.592105</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>01050430085</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>하혜영</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2022-06-05 20:56:35.036452</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>010-9953-8812</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>박상욱</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2022-06-05 21:13:53.710704</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01021797653</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>안지윤</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2022-06-05 22:04:34.637020</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01050674792</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>최한솔</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:06:31.155635</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01044088111</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>김태형</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:24:57.958797</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01099343733</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>옥진석</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022-06-06 11:24:03.457178</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01084683737</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>조규형</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022-06-06 12:37:05.070409</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01040070911</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>아무런 이유없이도 산책을 즐겨해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>김다예</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022-06-06 12:42:31.942427</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01021663108</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>배소현</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022-06-06 14:03:03.073572</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01041523250</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>김민섭</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022-06-06 14:20:22.585914</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01057870008</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>박야성</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022-06-06 14:33:44.305698</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01050381031</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>서종미</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022-06-06 15:33:56.208905</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01077099941</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>김찬미</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022-06-06 15:58:23.269952</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>010-4237-9552</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>인서연</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-06-06 16:30:41.818925</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>010-9297-1516</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>차지영</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-06-06 18:11:18.114033</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01096501432</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>황선하</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022-06-06 19:24:17.138622</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>01081818692</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/oumtt_apply.xlsx
+++ b/oumtt_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,6 +2294,348 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">서종미 </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022-06-07 06:59:16.006482</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>01077099941</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>조연경</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022-06-07 09:54:45.839197</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01034055396</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>오하솜</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-06-07 10:16:12.895347</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01042425486</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>스트레스를 해소하기 위해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>김하현</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022-06-07 12:59:04.206558</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>01049032016</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>한소희</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022-06-07 14:27:59.877179</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>01045360176</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>이준</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022-06-07 16:01:17.430995</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01081078383</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>이상훈</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022-06-07 16:07:32.306201</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>01042431231</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>생각(고민)의 정리가 필요할 때.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>최민옥</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022-06-07 19:36:30.065258</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01050248507</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>서예빈</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-06-07 19:37:46.083269</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>01023760139</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>푸릇푸릇한 자연을 좋아해서.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
